--- a/Rail/pcb1_12V_XL_2023-07-07_BOM_JLCSMT.xlsx
+++ b/Rail/pcb1_12V_XL_2023-07-07_BOM_JLCSMT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ms\ISOBUS_Hardware\Rail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46727D12-05CB-4E98-AEA6-5B4DFE19CF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23F27ED-FD74-49BB-9611-AA63BA09AD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5565" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>Comment</t>
   </si>
@@ -72,9 +72,6 @@
     <t>U2, U3, U5, U6</t>
   </si>
   <si>
-    <t>C11</t>
-  </si>
-  <si>
     <t>C1, C2, C3, C5, C6, C13, C17, C18, C19, C20</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>R1, R3</t>
   </si>
   <si>
-    <t>X2</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>SOP65P600X115-15N-V</t>
   </si>
   <si>
-    <t>WCAP-CSGP_0402</t>
-  </si>
-  <si>
     <t>WCAP-CSGP_0805_H0.8_R</t>
   </si>
   <si>
@@ -168,73 +159,58 @@
     <t>WE-TVSP_DO-214AB_BIDIRECTIONAL</t>
   </si>
   <si>
-    <t>WRIS-KWKB_0612</t>
-  </si>
-  <si>
     <t>R0805</t>
   </si>
   <si>
-    <t>B4P-VH</t>
-  </si>
-  <si>
-    <t>INF-PG-TO252-5-11_L_1PRIMARY</t>
-  </si>
-  <si>
     <t>SOIC127P602X173-8N-V</t>
   </si>
   <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>10nF</t>
-  </si>
-  <si>
-    <t>13K</t>
-  </si>
-  <si>
-    <t>150141VS73100</t>
-  </si>
-  <si>
-    <t>1K2</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>24Vdc</t>
-  </si>
-  <si>
-    <t>3.3Vdc</t>
-  </si>
-  <si>
-    <t>33V</t>
-  </si>
-  <si>
-    <t>470Ohm</t>
-  </si>
-  <si>
-    <t>47K</t>
-  </si>
-  <si>
-    <t>47R</t>
-  </si>
-  <si>
-    <t>47nF</t>
-  </si>
-  <si>
-    <t>4k7</t>
-  </si>
-  <si>
-    <t>60R</t>
-  </si>
-  <si>
-    <t>TLE4270-2D-INF-PG-TO252-5-11_L_1</t>
-  </si>
-  <si>
     <t>TLE9250VSJ</t>
   </si>
   <si>
     <t>BTS7030-2EPA</t>
+  </si>
+  <si>
+    <t>IFX27001TF_V50</t>
+  </si>
+  <si>
+    <t>WCAP-CSGP_0805_H0.8_885012207098_50V(DC)_R</t>
+  </si>
+  <si>
+    <t>WCAP-CSGP_1206_H0.8_885012208087_50V(DC)</t>
+  </si>
+  <si>
+    <t>WCAP-CSGP_0805_H0.8_885012207092_50V(DC)_R</t>
+  </si>
+  <si>
+    <t>R-EU_R1206</t>
+  </si>
+  <si>
+    <t>WL-SMTW_3528_150141VS73100</t>
+  </si>
+  <si>
+    <t>WCAP-CSGP_0805_H1.25_885012107011_10V(DC)</t>
+  </si>
+  <si>
+    <t>WCAP-CSGP_1210_H2.5_885012109014_25V(DC)</t>
+  </si>
+  <si>
+    <t>WE-TVS_SOT23-3L_824094024</t>
+  </si>
+  <si>
+    <t>WE-TVS-HS_SOT143-4L_8240136</t>
+  </si>
+  <si>
+    <t>WE-TVSP_DO-214AB_3000W_BI_824551331</t>
+  </si>
+  <si>
+    <t>R-EU_R0805</t>
+  </si>
+  <si>
+    <t>WCAP-CSGP_0805_H0.8_885012207096_50V(DC)_R</t>
+  </si>
+  <si>
+    <t>INF-PG-TO252-3-11_N</t>
   </si>
 </sst>
 </file>
@@ -674,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -704,249 +680,224 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Rail/pcb1_12V_XL_2023-07-07_BOM_JLCSMT.xlsx
+++ b/Rail/pcb1_12V_XL_2023-07-07_BOM_JLCSMT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ms\ISOBUS_Hardware\Rail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23F27ED-FD74-49BB-9611-AA63BA09AD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACC9D4D-F6BD-45C4-A851-724817D50201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-5565" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>Comment</t>
   </si>
@@ -174,43 +174,106 @@
     <t>IFX27001TF_V50</t>
   </si>
   <si>
-    <t>WCAP-CSGP_0805_H0.8_885012207098_50V(DC)_R</t>
-  </si>
-  <si>
-    <t>WCAP-CSGP_1206_H0.8_885012208087_50V(DC)</t>
-  </si>
-  <si>
-    <t>WCAP-CSGP_0805_H0.8_885012207092_50V(DC)_R</t>
-  </si>
-  <si>
-    <t>R-EU_R1206</t>
-  </si>
-  <si>
-    <t>WL-SMTW_3528_150141VS73100</t>
-  </si>
-  <si>
-    <t>WCAP-CSGP_0805_H1.25_885012107011_10V(DC)</t>
-  </si>
-  <si>
-    <t>WCAP-CSGP_1210_H2.5_885012109014_25V(DC)</t>
-  </si>
-  <si>
-    <t>WE-TVS_SOT23-3L_824094024</t>
-  </si>
-  <si>
-    <t>WE-TVS-HS_SOT143-4L_8240136</t>
-  </si>
-  <si>
-    <t>WE-TVSP_DO-214AB_3000W_BI_824551331</t>
-  </si>
-  <si>
-    <t>R-EU_R0805</t>
-  </si>
-  <si>
-    <t>WCAP-CSGP_0805_H0.8_885012207096_50V(DC)_R</t>
-  </si>
-  <si>
     <t>INF-PG-TO252-3-11_N</t>
+  </si>
+  <si>
+    <t>J5, J9</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J1, J2, J10, J11, J12</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>13K</t>
+  </si>
+  <si>
+    <t>150141VS73100</t>
+  </si>
+  <si>
+    <t>1K2</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>24Vdc</t>
+  </si>
+  <si>
+    <t>3.3Vdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330  ÂµF </t>
+  </si>
+  <si>
+    <t>33V</t>
+  </si>
+  <si>
+    <t>470Ohm</t>
+  </si>
+  <si>
+    <t>47K</t>
+  </si>
+  <si>
+    <t>47R</t>
+  </si>
+  <si>
+    <t>47nF</t>
+  </si>
+  <si>
+    <t>4k7</t>
+  </si>
+  <si>
+    <t>60R</t>
+  </si>
+  <si>
+    <t>B4P-VH</t>
+  </si>
+  <si>
+    <t>ESP32-S3-DEVKITC-1-N8R2</t>
+  </si>
+  <si>
+    <t>MBRS340T3</t>
+  </si>
+  <si>
+    <t>6130XX21121_61300621121</t>
+  </si>
+  <si>
+    <t>638207222006</t>
+  </si>
+  <si>
+    <t>61300421121</t>
+  </si>
+  <si>
+    <t>61300621121</t>
+  </si>
+  <si>
+    <t>WCAP-ASLI_12.5X14(DXL)</t>
+  </si>
+  <si>
+    <t>XCVR_ESP32-S3-DEVKITC-1-N8R2</t>
+  </si>
+  <si>
+    <t>SMC</t>
   </si>
 </sst>
 </file>
@@ -287,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -307,6 +370,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -650,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -680,225 +744,305 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>40</v>
+      <c r="A5" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>41</v>
+      <c r="A6" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
